--- a/Measurement/C# Performance Measurement.xlsx
+++ b/Measurement/C# Performance Measurement.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A14E0C-0805-446B-AEBC-E7EC60A52B14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithm 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algorithm 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Algorithm 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +21,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>Data Size</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>6K</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +54,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -45,12 +91,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +456,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>600</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2600</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.236</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.72</v>
+      </c>
+      <c r="D2" s="4">
+        <v>14.551</v>
+      </c>
+      <c r="E2" s="4">
+        <v>36.393999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>74.283000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>127.26</v>
+      </c>
+      <c r="H2" s="4">
+        <v>202.29900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B2DACF-A325-4EC8-B1D1-82973DE00F45}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>600</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2200</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2600</v>
+      </c>
+      <c r="H1" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.49</v>
+      </c>
+      <c r="E2" s="4">
+        <v>14.792</v>
+      </c>
+      <c r="F2" s="4">
+        <v>26.113</v>
+      </c>
+      <c r="G2" s="4">
+        <v>42.603999999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C7E68E-B42C-481B-BA7C-B3D4330CB4CC}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>128</v>
+      </c>
+      <c r="B2">
+        <v>219.59899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>512</v>
+      </c>
+      <c r="B4">
+        <v>222.26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>